--- a/Jogos_do_Dia/2023-12-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,10 +691,10 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>2.2</v>
@@ -718,10 +718,10 @@
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>1.79</v>
@@ -857,10 +857,10 @@
         <v>3.89</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U3" t="n">
         <v>1.62</v>
@@ -969,13 +969,13 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -996,10 +996,10 @@
         <v>3.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
         <v>1.82</v>
@@ -1135,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
         <v>1.95</v>
@@ -1389,10 +1389,10 @@
         <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M7" t="n">
         <v>1.44</v>
@@ -1525,13 +1525,13 @@
         <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.4</v>
@@ -1552,10 +1552,10 @@
         <v>3.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
         <v>1.75</v>
@@ -1691,10 +1691,10 @@
         <v>4.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
         <v>1.83</v>
@@ -1830,10 +1830,10 @@
         <v>4.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U10" t="n">
         <v>1.66</v>
@@ -1969,10 +1969,10 @@
         <v>4.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="U11" t="n">
         <v>1.5</v>
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,134 +2198,134 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Oţelul Galaţi</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N13" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.75</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="S13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.95</v>
       </c>
-      <c r="T13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AO13" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AP13" t="n">
-        <v>4.33</v>
+        <v>5.1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,134 +2337,134 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Oţelul Galaţi</t>
+          <t>RCD Mallorca</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R14" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.95</v>
+        <v>1.46</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.67</v>
+        <v>0.63</v>
       </c>
       <c r="AB14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>1.65</v>
       </c>
-      <c r="AC14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1.79</v>
-      </c>
       <c r="AK14" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AL14" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="AM14" t="n">
         <v>1.64</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AP14" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2476,125 +2476,125 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>AD Alcorcón</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="N15" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.63</v>
+        <v>1.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.88</v>
+        <v>2.69</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.97</v>
+        <v>2.67</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK15" t="n">
         <v>2.1</v>
       </c>
-      <c r="AH15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2.07</v>
-      </c>
       <c r="AL15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.21</v>
@@ -2603,7 +2603,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2615,134 +2615,134 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AD Alcorcón</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.8</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="V16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM16" t="n">
         <v>1.4</v>
       </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AN16" t="n">
-        <v>2.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2758,130 +2758,130 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="K17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.5</v>
       </c>
-      <c r="L17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.2</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" t="n">
         <v>1.2</v>
       </c>
       <c r="R17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S17" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="T17" t="n">
         <v>2.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z17" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AA17" t="n">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AF17" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AK17" t="n">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2897,124 +2897,124 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L18" t="n">
         <v>2.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.65</v>
-      </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="V18" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AF18" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="19">
@@ -3054,7 +3054,7 @@
         <v>1.57</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" t="n">
         <v>6.5</v>
@@ -3332,13 +3332,13 @@
         <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M21" t="n">
         <v>1.33</v>
@@ -3437,7 +3437,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS Marítimo</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="H22" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="M22" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P22" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="R22" t="n">
-        <v>3.08</v>
+        <v>3.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="X22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>1.26</v>
       </c>
-      <c r="Y22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AK22" t="n">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AM22" t="n">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AO22" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3592,130 +3592,130 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN23" t="n">
         <v>2.88</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="AO23" t="n">
         <v>1.33</v>
       </c>
-      <c r="N23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH23" t="n">
+      <c r="AP23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3731,130 +3731,130 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P24" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="S24" t="n">
         <v>1.8</v>
       </c>
       <c r="T24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG24" t="n">
         <v>1.91</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AH24" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AI24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN24" t="n">
         <v>3.05</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AO24" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,134 +3866,134 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>CS Marítimo</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="N25" t="n">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="O25" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="P25" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R25" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="S25" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="X25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC25" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AL25" t="n">
         <v>1.38</v>
       </c>
-      <c r="AD25" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AM25" t="n">
-        <v>1.5</v>
+        <v>2.71</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.29</v>
+        <v>2.01</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.25</v>
+        <v>2.19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.16</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4009,130 +4009,130 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
         <v>3.2</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
       <c r="M26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>1.44</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>1.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4148,124 +4148,124 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>6.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
         <v>1.06</v>
       </c>
       <c r="P27" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE27" t="n">
         <v>1.28</v>
       </c>
-      <c r="R27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="AF27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AH27" t="n">
         <v>1.28</v>
       </c>
-      <c r="Y27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AI27" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="AM27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="28">
@@ -4305,13 +4305,13 @@
         <v>8.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.3</v>
@@ -4332,10 +4332,10 @@
         <v>4.33</v>
       </c>
       <c r="S28" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="T28" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="U28" t="n">
         <v>2.2</v>
@@ -4410,7 +4410,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -4422,128 +4422,128 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>2.2</v>
       </c>
       <c r="I29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R29" t="n">
         <v>3.75</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.79</v>
-      </c>
       <c r="S29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="X29" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.65</v>
+        <v>2.74</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="AF29" t="n">
         <v>7.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="30">
@@ -4688,7 +4688,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,134 +4700,134 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
         <v>1.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
         <v>5.8</v>
       </c>
       <c r="M31" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P31" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R31" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="S31" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="T31" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W31" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X31" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.43</v>
+        <v>0.89</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AK31" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4839,134 +4839,134 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y32" t="n">
         <v>2.6</v>
       </c>
-      <c r="J32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Z32" t="n">
-        <v>1.89</v>
+        <v>2.33</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AB32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>1.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4978,134 +4978,134 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
         <v>2.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>4.6</v>
+        <v>1.83</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="N33" t="n">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="O33" t="n">
         <v>1.05</v>
       </c>
       <c r="P33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>1.28</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>1.62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5117,134 +5117,134 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.91</v>
       </c>
-      <c r="H34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P34" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="U34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X34" t="n">
         <v>1.22</v>
       </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y34" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AM34" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -5256,128 +5256,128 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO35" t="n">
         <v>1.5</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AP35" t="n">
         <v>3.05</v>
       </c>
-      <c r="AE35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>2.9</v>
-      </c>
       <c r="AQ35" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="36">
@@ -5447,7 +5447,7 @@
         <v>1.75</v>
       </c>
       <c r="T36" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U36" t="n">
         <v>1.75</v>
@@ -5583,10 +5583,10 @@
         <v>4.33</v>
       </c>
       <c r="S37" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
@@ -5698,7 +5698,7 @@
         <v>1.75</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L38" t="n">
         <v>4.8</v>
@@ -5834,13 +5834,13 @@
         <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K39" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M39" t="n">
         <v>1.53</v>
@@ -5855,13 +5855,13 @@
         <v>7</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S39" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T39" t="n">
         <v>1.5</v>
@@ -5973,13 +5973,13 @@
         <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L40" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.44</v>
@@ -6000,10 +6000,10 @@
         <v>3.25</v>
       </c>
       <c r="S40" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U40" t="n">
         <v>1.8</v>
@@ -6078,7 +6078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -6090,134 +6090,134 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K41" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="T41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB41" t="n">
         <v>1.67</v>
       </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.11</v>
-      </c>
       <c r="AC41" t="n">
-        <v>0.98</v>
+        <v>1.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.09</v>
+        <v>3.07</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -6229,134 +6229,134 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P42" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T42" t="n">
         <v>2.2</v>
       </c>
-      <c r="I42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P42" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y42" t="n">
         <v>1.95</v>
       </c>
-      <c r="V42" t="n">
+      <c r="Z42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL42" t="n">
         <v>1.8</v>
       </c>
-      <c r="W42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>2.37</v>
-      </c>
       <c r="AM42" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="AP42" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -6372,130 +6372,130 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GD Chaves</t>
+          <t>Benfica II</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>CD Tondela</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="J43" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L43" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="S43" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH43" t="n">
         <v>1.17</v>
       </c>
-      <c r="AA43" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -6507,134 +6507,134 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L44" t="n">
-        <v>3.7</v>
+        <v>4.35</v>
       </c>
       <c r="M44" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="T44" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="U44" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.98</v>
+        <v>1.11</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.59</v>
+        <v>0.98</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.57</v>
+        <v>2.09</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -6646,134 +6646,134 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>GD Chaves</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.94</v>
+        <v>2.74</v>
       </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="L45" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="M45" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="T45" t="n">
-        <v>2.19</v>
+        <v>1.68</v>
       </c>
       <c r="U45" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD45" t="n">
         <v>2.38</v>
       </c>
-      <c r="AA45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>3.07</v>
-      </c>
       <c r="AE45" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -6789,124 +6789,124 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Benfica II</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CD Tondela</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H46" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.48</v>
+        <v>2.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L46" t="n">
-        <v>2.79</v>
+        <v>1.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="N46" t="n">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="O46" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P46" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Q46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO46" t="n">
         <v>1.26</v>
       </c>
-      <c r="R46" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AP46" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.52</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="47">
@@ -6949,7 +6949,7 @@
         <v>1.28</v>
       </c>
       <c r="K47" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="L47" t="n">
         <v>10</v>
@@ -7085,7 +7085,7 @@
         <v>6.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K48" t="n">
         <v>4.25</v>
@@ -7112,10 +7112,10 @@
         <v>4.2</v>
       </c>
       <c r="S48" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U48" t="n">
         <v>1.95</v>
@@ -7329,7 +7329,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Slovakia Super Liga</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -7341,134 +7341,134 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Olimpija</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rogaška</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO50" t="n">
         <v>1.65</v>
       </c>
-      <c r="H50" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="L50" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P50" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>1.76</v>
-      </c>
       <c r="AP50" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -7480,134 +7480,134 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Cracovia Kraków</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I51" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="K51" t="n">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="L51" t="n">
-        <v>1.53</v>
+        <v>5.2</v>
       </c>
       <c r="M51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P51" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W51" t="n">
         <v>1.18</v>
       </c>
-      <c r="N51" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P51" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.1</v>
-      </c>
       <c r="X51" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="AB51" t="n">
-        <v>2.23</v>
+        <v>2.01</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="AD51" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="AE51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>1.3</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>1.52</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -7619,134 +7619,134 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Olimpija</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Rogaška</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I52" t="n">
-        <v>6.5</v>
+        <v>8.35</v>
       </c>
       <c r="J52" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="K52" t="n">
-        <v>4.6</v>
+        <v>5.65</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N52" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.03</v>
       </c>
       <c r="P52" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="R52" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="S52" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="T52" t="n">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="U52" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V52" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W52" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="X52" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="Y52" t="n">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.71</v>
+        <v>1.78</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.29</v>
+        <v>0.6</v>
       </c>
       <c r="AB52" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AC52" t="n">
         <v>1.16</v>
       </c>
       <c r="AD52" t="n">
-        <v>3.41</v>
+        <v>3.29</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="AM52" t="n">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="AN52" t="n">
-        <v>2.59</v>
+        <v>2.03</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="AP52" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Slovakia Super Liga</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -7758,134 +7758,134 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="I53" t="n">
-        <v>5.48</v>
+        <v>6.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="K53" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="L53" t="n">
+        <v>7</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N53" t="n">
         <v>3.75</v>
       </c>
-      <c r="M53" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N53" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O53" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P53" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="R53" t="n">
-        <v>3.74</v>
+        <v>5.5</v>
       </c>
       <c r="S53" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="T53" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="U53" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V53" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W53" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="X53" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AB53" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="AC53" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AD53" t="n">
-        <v>2.92</v>
+        <v>3.41</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AF53" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>3.68</v>
+        <v>3.45</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AK53" t="n">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="AL53" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="AM53" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.2</v>
+        <v>2.59</v>
       </c>
       <c r="AO53" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.9</v>
+        <v>3.48</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -7897,128 +7897,128 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cracovia Kraków</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="H54" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="K54" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>1.57</v>
       </c>
       <c r="M54" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="N54" t="n">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P54" t="n">
-        <v>7.8</v>
+        <v>26</v>
       </c>
       <c r="Q54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC54" t="n">
         <v>1.22</v>
       </c>
-      <c r="R54" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S54" t="n">
+      <c r="AD54" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN54" t="n">
         <v>1.85</v>
       </c>
-      <c r="T54" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>2.37</v>
-      </c>
       <c r="AO54" t="n">
-        <v>1.51</v>
+        <v>1.84</v>
       </c>
       <c r="AP54" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="55">
@@ -8064,7 +8064,7 @@
         <v>3</v>
       </c>
       <c r="L55" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M55" t="n">
         <v>1.57</v>
@@ -8197,13 +8197,13 @@
         <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="K56" t="n">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="L56" t="n">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="M56" t="n">
         <v>1.23</v>
@@ -8302,7 +8302,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -8314,134 +8314,134 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N57" t="n">
         <v>2.5</v>
       </c>
-      <c r="H57" t="n">
+      <c r="O57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD57" t="n">
         <v>2.15</v>
       </c>
-      <c r="I57" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K57" t="n">
+      <c r="AE57" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN57" t="n">
         <v>3.3</v>
       </c>
-      <c r="L57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P57" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V57" t="n">
-        <v>2</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AO57" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AP57" t="n">
-        <v>3.34</v>
+        <v>5.4</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -8453,134 +8453,134 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UD Las Palmas</t>
+          <t>SD Amorebieta</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.83</v>
+        <v>3.3</v>
       </c>
       <c r="K58" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="L58" t="n">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q58" t="n">
         <v>1.5</v>
       </c>
-      <c r="N58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P58" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.45</v>
-      </c>
       <c r="R58" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S58" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U58" t="n">
         <v>2.3</v>
       </c>
-      <c r="T58" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AE58" t="n">
         <v>2.1</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X58" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1.58</v>
       </c>
       <c r="AF58" t="n">
         <v>7.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AI58" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="AK58" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="AL58" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AM58" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AN58" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="AO58" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AP58" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -8592,134 +8592,134 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SD Amorebieta</t>
+          <t>UD Las Palmas</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y59" t="n">
         <v>1.85</v>
       </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P59" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U59" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X59" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Z59" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.33</v>
+        <v>0.38</v>
       </c>
       <c r="AB59" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="AD59" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="AE59" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="AF59" t="n">
         <v>7.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>1.95</v>
+        <v>2.85</v>
       </c>
       <c r="AH59" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AI59" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="AK59" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL59" t="n">
         <v>2.2</v>
       </c>
-      <c r="AL59" t="n">
-        <v>1.98</v>
-      </c>
       <c r="AM59" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AN59" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AO59" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AP59" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -8731,134 +8731,134 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I60" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y60" t="n">
         <v>1.85</v>
       </c>
-      <c r="K60" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M60" t="n">
+      <c r="Z60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>1.5</v>
       </c>
-      <c r="N60" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P60" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X60" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AK60" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="AL60" t="n">
-        <v>2.37</v>
+        <v>1.88</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.49</v>
+        <v>1.93</v>
       </c>
       <c r="AN60" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="AO60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AQ60" t="n">
         <v>1.26</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -8874,130 +8874,130 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>GD Estoril Praia</t>
+          <t>CD Mafra</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK61" t="n">
         <v>3.2</v>
       </c>
-      <c r="L61" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
       <c r="AL61" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN61" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP61" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -9013,124 +9013,124 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CD Mafra</t>
+          <t>GD Estoril Praia</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K62" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L62" t="n">
-        <v>1.91</v>
+        <v>3.33</v>
       </c>
       <c r="M62" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="T62" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U62" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
         <v>1.67</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AA62" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AB62" t="n">
         <v>1.27</v>
       </c>
-      <c r="Y62" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AC62" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="AE62" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AK62" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AM62" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AO62" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -9475,10 +9475,10 @@
         <v>3.75</v>
       </c>
       <c r="S65" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T65" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U65" t="n">
         <v>1.95</v>
@@ -9587,13 +9587,13 @@
         <v>2.8</v>
       </c>
       <c r="J66" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L66" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M66" t="n">
         <v>1.52</v>
@@ -9614,10 +9614,10 @@
         <v>2.7</v>
       </c>
       <c r="S66" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T66" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U66" t="n">
         <v>2</v>
@@ -9729,10 +9729,10 @@
         <v>3.9</v>
       </c>
       <c r="K67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L67" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M67" t="n">
         <v>1.33</v>
@@ -9868,10 +9868,10 @@
         <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M68" t="n">
         <v>1.3</v>
@@ -10004,7 +10004,7 @@
         <v>2.38</v>
       </c>
       <c r="J69" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K69" t="n">
         <v>3.5</v>
@@ -10034,7 +10034,7 @@
         <v>1.95</v>
       </c>
       <c r="T69" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U69" t="n">
         <v>1.95</v>
@@ -10143,13 +10143,13 @@
         <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="K70" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M70" t="n">
         <v>1.6</v>
@@ -10164,10 +10164,10 @@
         <v>6</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R70" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="S70" t="n">
         <v>2.52</v>
@@ -10288,7 +10288,7 @@
         <v>5.5</v>
       </c>
       <c r="L71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.2</v>
@@ -10421,13 +10421,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="K72" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L72" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>1.6</v>
       </c>
       <c r="T72" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-12-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
         <v>1.79</v>
@@ -739,10 +739,10 @@
         <v>1.39</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>1.5</v>
@@ -833,10 +833,10 @@
         <v>2.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M3" t="n">
         <v>1.33</v>
@@ -857,10 +857,10 @@
         <v>3.89</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="U3" t="n">
         <v>1.62</v>
@@ -878,10 +878,10 @@
         <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AB3" t="n">
         <v>1.38</v>
@@ -969,10 +969,10 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
         <v>3.2</v>
@@ -996,10 +996,10 @@
         <v>3.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
         <v>1.82</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" t="n">
         <v>1.19</v>
@@ -1108,13 +1108,13 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.33</v>
@@ -1135,10 +1135,10 @@
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1156,10 +1156,10 @@
         <v>2.37</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>1.31</v>
@@ -1247,13 +1247,13 @@
         <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.44</v>
@@ -1274,10 +1274,10 @@
         <v>3.1</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1295,10 +1295,10 @@
         <v>1.95</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AB6" t="n">
         <v>1.34</v>
@@ -1386,13 +1386,13 @@
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.44</v>
@@ -1413,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1434,10 +1434,10 @@
         <v>1.47</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AB7" t="n">
         <v>1.36</v>
@@ -1525,13 +1525,13 @@
         <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1.4</v>
@@ -1552,10 +1552,10 @@
         <v>3.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
         <v>1.75</v>
@@ -1573,10 +1573,10 @@
         <v>1.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AB8" t="n">
         <v>1.39</v>
@@ -1664,13 +1664,13 @@
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="M9" t="n">
         <v>1.29</v>
@@ -1691,10 +1691,10 @@
         <v>4.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="U9" t="n">
         <v>1.83</v>
@@ -1712,10 +1712,10 @@
         <v>3.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AB9" t="n">
         <v>1.81</v>
@@ -1803,13 +1803,13 @@
         <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="M10" t="n">
         <v>1.3</v>
@@ -1830,10 +1830,10 @@
         <v>4.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
         <v>1.66</v>
@@ -1851,10 +1851,10 @@
         <v>2.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AB10" t="n">
         <v>1.84</v>
@@ -1942,13 +1942,13 @@
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>1.29</v>
@@ -1969,10 +1969,10 @@
         <v>4.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
       <c r="U11" t="n">
         <v>1.5</v>
@@ -1990,10 +1990,10 @@
         <v>1.73</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AB11" t="n">
         <v>1.87</v>
@@ -2081,13 +2081,13 @@
         <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.36</v>
@@ -2108,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="U12" t="n">
         <v>1.62</v>
@@ -2129,10 +2129,10 @@
         <v>1.46</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AB12" t="n">
         <v>1.54</v>
@@ -2220,13 +2220,13 @@
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="n">
         <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.48</v>
@@ -2247,10 +2247,10 @@
         <v>2.8</v>
       </c>
       <c r="S13" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
         <v>2.05</v>
@@ -2268,10 +2268,10 @@
         <v>1.95</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AB13" t="n">
         <v>1.65</v>
@@ -2359,13 +2359,13 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L14" t="n">
         <v>2.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.55</v>
       </c>
       <c r="M14" t="n">
         <v>1.44</v>
@@ -2386,10 +2386,10 @@
         <v>3.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
         <v>1.91</v>
@@ -2407,10 +2407,10 @@
         <v>1.46</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AB14" t="n">
         <v>1.72</v>
@@ -2498,13 +2498,13 @@
         <v>2.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="M15" t="n">
         <v>1.45</v>
@@ -2525,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
         <v>1.85</v>
@@ -2742,7 +2742,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2758,130 +2758,130 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>2.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
         <v>1.2</v>
       </c>
       <c r="R17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB17" t="n">
         <v>1.65</v>
       </c>
-      <c r="T17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AC17" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AF17" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2897,124 +2897,124 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q18" t="n">
         <v>1.2</v>
       </c>
       <c r="R18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.57</v>
       </c>
-      <c r="T18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.48</v>
-      </c>
       <c r="V18" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="Z18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AO18" t="n">
         <v>1.75</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AP18" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="19">
@@ -3054,13 +3054,13 @@
         <v>1.57</v>
       </c>
       <c r="J19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.18</v>
@@ -3081,10 +3081,10 @@
         <v>7.29</v>
       </c>
       <c r="S19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T19" t="n">
-        <v>2.84</v>
+        <v>3.09</v>
       </c>
       <c r="U19" t="n">
         <v>1.75</v>
@@ -3241,10 +3241,10 @@
         <v>2.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AB20" t="n">
         <v>1.89</v>
@@ -3332,13 +3332,13 @@
         <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="M21" t="n">
         <v>1.33</v>
@@ -3359,10 +3359,10 @@
         <v>3.89</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="n">
         <v>1.7</v>
@@ -3437,7 +3437,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,128 +3449,128 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
         <v>2.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>2.23</v>
       </c>
       <c r="K22" t="n">
         <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.05</v>
       </c>
       <c r="P22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>1.28</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1.62</v>
       </c>
     </row>
     <row r="23">
@@ -3610,13 +3610,13 @@
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="K23" t="n">
         <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M23" t="n">
         <v>1.44</v>
@@ -3637,10 +3637,10 @@
         <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
         <v>1.91</v>
@@ -3715,7 +3715,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,134 +3727,134 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>CS Marítimo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="M24" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="N24" t="n">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="P24" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="X24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC24" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AL24" t="n">
         <v>1.38</v>
       </c>
-      <c r="AD24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AM24" t="n">
-        <v>1.5</v>
+        <v>2.71</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.29</v>
+        <v>2.01</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.25</v>
+        <v>2.19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.16</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,128 +3866,128 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS Marítimo</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>2.88</v>
       </c>
       <c r="H25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T25" t="n">
         <v>2.11</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AO25" t="n">
         <v>1.73</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>2.01</v>
-      </c>
       <c r="AP25" t="n">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="26">
@@ -4009,31 +4009,31 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.15</v>
+        <v>1.42</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L26" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
         <v>1.33</v>
@@ -4045,94 +4045,94 @@
         <v>1.06</v>
       </c>
       <c r="P26" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R26" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="T26" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="X26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE26" t="n">
         <v>1.28</v>
       </c>
-      <c r="Y26" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.12</v>
+        <v>4.8</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AI26" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AK26" t="n">
-        <v>2.85</v>
+        <v>2.28</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4148,130 +4148,130 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.95</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="W27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI27" t="n">
+      <c r="AN27" t="n">
         <v>3.05</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AO27" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Slovakia Super Liga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -4283,134 +4283,134 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zemplín Michalovce</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.67</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="V28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH28" t="n">
         <v>1.2</v>
       </c>
-      <c r="R28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AM28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AO28" t="n">
         <v>1.63</v>
       </c>
       <c r="AP28" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Slovakia Super Liga</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -4422,128 +4422,128 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Zemplín Michalovce</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="H29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.2</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="V29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y29" t="n">
         <v>3.2</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="Z29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC29" t="n">
         <v>1.36</v>
       </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P29" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AD29" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.2</v>
+        <v>1.34</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.5</v>
+        <v>10.2</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.88</v>
+        <v>3.99</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AM29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AO29" t="n">
         <v>1.63</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30">
@@ -4583,13 +4583,13 @@
         <v>2.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="M30" t="n">
         <v>1.33</v>
@@ -4613,7 +4613,7 @@
         <v>1.67</v>
       </c>
       <c r="T30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
         <v>1.62</v>
@@ -4688,7 +4688,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,134 +4700,134 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L31" t="n">
         <v>5.8</v>
       </c>
       <c r="M31" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF31" t="n">
         <v>8.5</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="AG31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL31" t="n">
         <v>1.85</v>
       </c>
-      <c r="V31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z31" t="n">
+      <c r="AM31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN31" t="n">
         <v>2.33</v>
       </c>
-      <c r="AA31" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AO31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP31" t="n">
         <v>3.05</v>
       </c>
-      <c r="AE31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>2.9</v>
-      </c>
       <c r="AQ31" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4839,134 +4839,134 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.47</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>5.8</v>
+        <v>1.96</v>
       </c>
       <c r="M32" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N32" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X32" t="n">
         <v>1.22</v>
       </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y32" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.33</v>
+        <v>1.89</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AD32" t="n">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL32" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AM32" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4978,134 +4978,134 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="H33" t="n">
         <v>2.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
-        <v>1.83</v>
+        <v>4.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>4.2</v>
+        <v>1.69</v>
       </c>
       <c r="M33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="N33" t="n">
-        <v>2.75</v>
+        <v>2.91</v>
       </c>
       <c r="O33" t="n">
         <v>1.05</v>
       </c>
       <c r="P33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R33" t="n">
-        <v>3.79</v>
+        <v>3.5</v>
       </c>
       <c r="S33" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z33" t="n">
         <v>1.75</v>
       </c>
-      <c r="V33" t="n">
-        <v>2</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AA33" t="n">
-        <v>0.88</v>
+        <v>2.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.29</v>
+        <v>1.82</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.68</v>
+        <v>3.06</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.55</v>
+        <v>1.51</v>
       </c>
       <c r="AH33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>1.26</v>
       </c>
-      <c r="AI33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AK33" t="n">
-        <v>2.33</v>
+        <v>3.34</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.86</v>
+        <v>1.54</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="AP33" t="n">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5117,134 +5117,134 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y34" t="n">
         <v>2.6</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P34" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="Z34" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB34" t="n">
         <v>1.75</v>
       </c>
-      <c r="T34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>1.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -5256,128 +5256,128 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Raków Częstochowa</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
         <v>1.53</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P35" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R35" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="S35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO35" t="n">
         <v>1.6</v>
       </c>
-      <c r="T35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AP35" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="36">
@@ -5417,13 +5417,13 @@
         <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="M36" t="n">
         <v>1.36</v>
@@ -5444,10 +5444,10 @@
         <v>3.75</v>
       </c>
       <c r="S36" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U36" t="n">
         <v>1.75</v>
@@ -5556,13 +5556,13 @@
         <v>7.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>5.25</v>
       </c>
       <c r="L37" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.29</v>
@@ -5586,7 +5586,7 @@
         <v>1.57</v>
       </c>
       <c r="T37" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
@@ -5695,13 +5695,13 @@
         <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L38" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.4</v>
@@ -5722,10 +5722,10 @@
         <v>3.4</v>
       </c>
       <c r="S38" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U38" t="n">
         <v>1.95</v>
@@ -5834,13 +5834,13 @@
         <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L39" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="M39" t="n">
         <v>1.53</v>
@@ -5855,16 +5855,16 @@
         <v>7</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S39" t="n">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="T39" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="U39" t="n">
         <v>2.1</v>
@@ -5973,13 +5973,13 @@
         <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L40" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="M40" t="n">
         <v>1.44</v>
@@ -6000,10 +6000,10 @@
         <v>3.25</v>
       </c>
       <c r="S40" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T40" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U40" t="n">
         <v>1.8</v>
@@ -6094,31 +6094,31 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L41" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.3</v>
@@ -6127,97 +6127,97 @@
         <v>3.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P41" t="n">
-        <v>11</v>
+        <v>16.75</v>
       </c>
       <c r="Q41" t="n">
         <v>1.2</v>
       </c>
       <c r="R41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="S41" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T41" t="n">
         <v>2.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="W41" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="X41" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="Z41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN41" t="n">
         <v>2.38</v>
       </c>
-      <c r="AA41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>2.04</v>
-      </c>
       <c r="AO41" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -6229,134 +6229,134 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I42" t="n">
         <v>2.3</v>
       </c>
-      <c r="H42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>6.5</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L42" t="n">
-        <v>3.8</v>
+        <v>1.53</v>
       </c>
       <c r="M42" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O42" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P42" t="n">
-        <v>16.75</v>
+        <v>10</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="R42" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="S42" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="T42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W42" t="n">
         <v>2.2</v>
       </c>
-      <c r="U42" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>1.22</v>
       </c>
-      <c r="X42" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y42" t="n">
-        <v>1.95</v>
+        <v>1.17</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AA42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AQ42" t="n">
         <v>1.13</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>1.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -6368,134 +6368,134 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Benfica II</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CD Tondela</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>2.49</v>
       </c>
       <c r="H43" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="I43" t="n">
-        <v>3.48</v>
+        <v>3.95</v>
       </c>
       <c r="J43" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L43" t="n">
         <v>3.2</v>
       </c>
-      <c r="L43" t="n">
-        <v>2.7</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="N43" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P43" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="R43" t="n">
-        <v>3.34</v>
+        <v>4.5</v>
       </c>
       <c r="S43" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="U43" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="V43" t="n">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="X43" t="n">
         <v>1.28</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.43</v>
+        <v>2.38</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>2.65</v>
+        <v>3.07</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AI43" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>1.35</v>
       </c>
       <c r="AK43" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="AL43" t="n">
         <v>1.62</v>
       </c>
       <c r="AM43" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="AN43" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -6511,124 +6511,124 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>Benfica II</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>CD Tondela</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="J44" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>4.35</v>
+        <v>2.88</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="S44" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T44" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AA44" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.98</v>
+        <v>1.19</v>
       </c>
       <c r="AD44" t="n">
-        <v>2.09</v>
+        <v>2.65</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="45">
@@ -6650,12 +6650,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GD Chaves</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -6668,13 +6668,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.74</v>
+        <v>1.7</v>
       </c>
       <c r="K45" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L45" t="n">
-        <v>2.58</v>
+        <v>4.8</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -6695,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T45" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -6716,19 +6716,19 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -6789,124 +6789,124 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>GD Chaves</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>2.2</v>
       </c>
-      <c r="I46" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P46" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.05</v>
-      </c>
       <c r="T46" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U46" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
         <v>1.17</v>
       </c>
-      <c r="Z46" t="n">
-        <v>1</v>
-      </c>
       <c r="AA46" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AB46" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AC46" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AD46" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="AE46" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6946,13 +6946,13 @@
         <v>7.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="K47" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.2</v>
@@ -7085,10 +7085,10 @@
         <v>6.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="K48" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="L48" t="n">
         <v>7</v>
@@ -7112,10 +7112,10 @@
         <v>4.2</v>
       </c>
       <c r="S48" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T48" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
         <v>1.95</v>
@@ -7363,13 +7363,13 @@
         <v>5.48</v>
       </c>
       <c r="J50" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="K50" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L50" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M50" t="n">
         <v>1.33</v>
@@ -7390,10 +7390,10 @@
         <v>3.74</v>
       </c>
       <c r="S50" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="T50" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="U50" t="n">
         <v>1.8</v>
@@ -7435,10 +7435,10 @@
         <v>3.68</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ50" t="n">
         <v>1.39</v>
@@ -7502,13 +7502,13 @@
         <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="K51" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L51" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
         <v>1.35</v>
@@ -7529,10 +7529,10 @@
         <v>3.7</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U51" t="n">
         <v>1.85</v>
@@ -7780,13 +7780,13 @@
         <v>6.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="K53" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M53" t="n">
         <v>1.25</v>
@@ -7807,10 +7807,10 @@
         <v>5.5</v>
       </c>
       <c r="S53" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T53" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="U53" t="n">
         <v>1.7</v>
@@ -7919,13 +7919,13 @@
         <v>6.5</v>
       </c>
       <c r="J54" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="K54" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="L54" t="n">
-        <v>1.57</v>
+        <v>8.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.18</v>
@@ -8058,13 +8058,13 @@
         <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L55" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M55" t="n">
         <v>1.57</v>
@@ -8082,13 +8082,13 @@
         <v>1.5</v>
       </c>
       <c r="R55" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S55" t="n">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="T55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U55" t="n">
         <v>2.05</v>
@@ -8197,10 +8197,10 @@
         <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
         <v>15</v>
@@ -8336,13 +8336,13 @@
         <v>4.33</v>
       </c>
       <c r="J57" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L57" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M57" t="n">
         <v>1.5</v>
@@ -8363,10 +8363,10 @@
         <v>2.95</v>
       </c>
       <c r="S57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="U57" t="n">
         <v>1.95</v>
@@ -8475,13 +8475,13 @@
         <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="L58" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M58" t="n">
         <v>1.6</v>
@@ -8496,10 +8496,10 @@
         <v>6.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R58" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S58" t="n">
         <v>2.47</v>
@@ -8580,7 +8580,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -8592,134 +8592,134 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>UD Las Palmas</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P59" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V59" t="n">
         <v>2</v>
       </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P59" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U59" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W59" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="X59" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="Y59" t="n">
         <v>1.85</v>
       </c>
       <c r="Z59" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.38</v>
+        <v>1.67</v>
       </c>
       <c r="AB59" t="n">
-        <v>1.23</v>
+        <v>1.92</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.87</v>
+        <v>1.52</v>
       </c>
       <c r="AD59" t="n">
-        <v>2.1</v>
+        <v>3.44</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AF59" t="n">
         <v>7.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AH59" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AI59" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="AL59" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="AM59" t="n">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="AN59" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="AO59" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -8731,128 +8731,128 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>UD Las Palmas</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H60" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="n">
         <v>3.3</v>
       </c>
       <c r="L60" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="M60" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="N60" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="P60" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="R60" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="S60" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="U60" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W60" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="X60" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="Y60" t="n">
         <v>1.85</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.67</v>
+        <v>0.38</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.52</v>
+        <v>0.87</v>
       </c>
       <c r="AD60" t="n">
-        <v>3.44</v>
+        <v>2.1</v>
       </c>
       <c r="AE60" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AF60" t="n">
         <v>7.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AI60" t="n">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AK60" t="n">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="AN60" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="AO60" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AP60" t="n">
-        <v>3.34</v>
+        <v>3.95</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="61">
@@ -8892,13 +8892,13 @@
         <v>2.65</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.13</v>
       </c>
       <c r="K61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L61" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="M61" t="n">
         <v>1.33</v>
@@ -8922,7 +8922,7 @@
         <v>1.85</v>
       </c>
       <c r="T61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U61" t="n">
         <v>1.69</v>
@@ -9031,13 +9031,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K62" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L62" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -9058,10 +9058,10 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>7.5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="K63" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="L63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M63" t="n">
         <v>1.22</v>
@@ -9312,10 +9312,10 @@
         <v>1.36</v>
       </c>
       <c r="K64" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.2</v>
@@ -9448,13 +9448,13 @@
         <v>2.1</v>
       </c>
       <c r="J65" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K65" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M65" t="n">
         <v>1.36</v>
@@ -9475,10 +9475,10 @@
         <v>3.75</v>
       </c>
       <c r="S65" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T65" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="U65" t="n">
         <v>1.95</v>
@@ -9587,13 +9587,13 @@
         <v>2.8</v>
       </c>
       <c r="J66" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K66" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L66" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M66" t="n">
         <v>1.52</v>
@@ -9614,10 +9614,10 @@
         <v>2.7</v>
       </c>
       <c r="S66" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="U66" t="n">
         <v>2</v>
@@ -9726,13 +9726,13 @@
         <v>2.5</v>
       </c>
       <c r="J67" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K67" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L67" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M67" t="n">
         <v>1.33</v>
@@ -9756,7 +9756,7 @@
         <v>1.67</v>
       </c>
       <c r="T67" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U67" t="n">
         <v>1.67</v>
@@ -9865,13 +9865,13 @@
         <v>2.4</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K68" t="n">
         <v>3.75</v>
       </c>
       <c r="L68" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="M68" t="n">
         <v>1.3</v>
@@ -9892,10 +9892,10 @@
         <v>4.33</v>
       </c>
       <c r="S68" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="T68" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U68" t="n">
         <v>1.62</v>
@@ -10004,13 +10004,13 @@
         <v>2.38</v>
       </c>
       <c r="J69" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="K69" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L69" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="M69" t="n">
         <v>1.4</v>
@@ -10031,10 +10031,10 @@
         <v>3.4</v>
       </c>
       <c r="S69" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T69" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U69" t="n">
         <v>1.95</v>
@@ -10109,7 +10109,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -10121,134 +10121,134 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Racing Club de Ferrol</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CD Tenerife</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="H70" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J70" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="K70" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="L70" t="n">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="M70" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N70" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="O70" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P70" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X70" t="n">
         <v>1.13</v>
       </c>
-      <c r="P70" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T70" t="n">
+      <c r="Y70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>1.4</v>
       </c>
-      <c r="U70" t="n">
+      <c r="AK70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN70" t="n">
         <v>2.1</v>
       </c>
-      <c r="V70" t="n">
+      <c r="AO70" t="n">
         <v>1.62</v>
       </c>
-      <c r="W70" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AO70" t="n">
+      <c r="AP70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>1.37</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>1.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -10260,128 +10260,128 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Racing Club de Ferrol</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>CD Tenerife</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P71" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W71" t="n">
         <v>1.3</v>
       </c>
-      <c r="K71" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M71" t="n">
+      <c r="X71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ71" t="n">
         <v>1.2</v>
-      </c>
-      <c r="N71" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P71" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R71" t="n">
-        <v>7</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T71" t="n">
-        <v>3</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V71" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W71" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>1.37</v>
       </c>
     </row>
     <row r="72">
@@ -10421,13 +10421,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T72" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
